--- a/data/oussamatestdata.xlsx
+++ b/data/oussamatestdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/IDEA/Selenium-Midterm-Final-2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C296AE-8844-0F44-9C0C-56CB0D50908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0FB3A6-7877-5645-B237-469B56E62E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{800B2A6A-F57D-4545-914D-9DF13ACFE44F}"/>
   </bookViews>
@@ -84,25 +84,25 @@
     <t>ActionMan@gmail.com</t>
   </si>
   <si>
-    <t>I'm absolutely loving how easy this camera is to use and how clear the images turn out. And guess what? It's got a selfie screen on the back too! I've taken this camera with me on both underwater adventures and regular outings, and it never disappoints. It's definitely worth every penny, especially since they throw in a micro SD card. I'm seriously impressed and would happily purchase this camera again for its top-notch quality at such a reasonable price. :)</t>
-  </si>
-  <si>
-    <t>I received this camera before my trip, and it looks really great. In terms of the camera itself, it's very lightweight and extremely portable, even lighter than my iPhone. The best part is that I don't need to buy any additional accessories. I decided to give this camera a try because having a camera for water adventures is always convenient. I'm hoping to capture some stunning photos with it. :)</t>
-  </si>
-  <si>
-    <t>We love this camera! We tested it at our local beach to make sure it was waterproof. We are so excited to take this camera to Spain and France and not have to worry about ruining our phones or regular cameras. Definitely recommend :)</t>
-  </si>
-  <si>
-    <t>The worth quality of images. I would not recommed. Save your money and but another camera. :(</t>
-  </si>
-  <si>
-    <t>Overall the cam is a very good cam. Clear picture and easy operation.
+    <t>I'm absolutely loving how easy this camera is to use and how clear the images turn out. And guess what? It's got a selfie screen on the back too! I've taken this camera with me on both underwater adventures and regular outings, and it never disappoints. It's definitely worth every penny, especially since they throw in a micro SD card. I'm seriously impressed and would happily purchase this camera again for its top-notch quality at such a reasonable price.</t>
+  </si>
+  <si>
+    <t>I received this camera before my trip, and it looks really great. In terms of the camera itself, it's very lightweight and extremely portable, even lighter than my iPhone. The best part is that I don't need to buy any additional accessories. I decided to give this camera a try because having a camera for water adventures is always convenient. I'm hoping to capture some stunning photos with it.</t>
+  </si>
+  <si>
+    <t>We love this camera! We tested it at our local beach to make sure it was waterproof. We are so excited to take this camera to Spain and France and not have to worry about ruining our phones or regular cameras. Definitely recommend </t>
+  </si>
+  <si>
+    <t>The worth quality of images. I would not recommed. Save your money and but another camera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall the cam is a very good cam. Clear picture and easy operation.
 Big big problem is the life of the battery that last only 20 minutes.
 Also thr connection with the app by WiFi is very slow.
-The remote control is not working when the cam is covered by the plastic case. :)</t>
-  </si>
-  <si>
-    <t>First off, I think some of these 4-5 star reviews are NOT being 100% truthful and are unaware of how poorly made this camera is. This camera is 4K-upscaled-garbage. It is NOT true 4K. The image and picture quality for video is unacceptable. I'm not even going to go into sound quality (you shouldn't use action cameras for sound anyway). I attached 2 screenshots from a driving instructional stock footage session I shot a few weeks ago. One is from the camera I brought in 2016 (1080p); and one is from the "4K" camera I brought and used yesterday. I'm sure you can see the difference, despite the angle and different models. :'(</t>
+The remote control is not working when the cam is covered by the plastic case. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First off, I think some of these 4-5 star reviews are NOT being 100% truthful and are unaware of how poorly made this camera is. This camera is 4K-upscaled-garbage. It is NOT true 4K. The image and picture quality for video is unacceptable. I'm not even going to go into sound quality (you shouldn't use action cameras for sound anyway). I attached 2 screenshots from a driving instructional stock footage session I shot a few weeks ago. One is from the camera I brought in 2016 (1080p); and one is from the "4K" camera I brought and used yesterday. I'm sure you can see the difference, despite the angle and different models. </t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,7 +509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="102" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>5</v>
       </c>
